--- a/Stadistics.xlsx
+++ b/Stadistics.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Team</t>
   </si>
@@ -106,45 +106,6 @@
   </si>
   <si>
     <t>Games win in the last 10</t>
-  </si>
-  <si>
-    <t>Rockets</t>
-  </si>
-  <si>
-    <t>vs</t>
-  </si>
-  <si>
-    <t>Ocklahoma</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Games wined</t>
-  </si>
-  <si>
-    <t>Last Season Pos.</t>
-  </si>
-  <si>
-    <t>Caracteristicas</t>
-  </si>
-  <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Prob</t>
-  </si>
-  <si>
-    <t>Ganador</t>
-  </si>
-  <si>
-    <t>ROCKETS</t>
   </si>
 </sst>
 </file>
@@ -195,14 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +505,7 @@
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -591,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -614,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -637,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -660,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -683,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -706,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -729,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -752,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -775,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -798,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -821,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -842,402 +802,6 @@
       </c>
       <c r="G13" s="2">
         <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>B3</f>
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <f>B9</f>
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>0.25</v>
-      </c>
-      <c r="H17">
-        <f>(1 - (B17/(B17+D17)))*G17</f>
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <f>(1 - (D17/(B17+D17)))*G17</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>C3</f>
-        <v>90738581</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4">
-        <f>C9</f>
-        <v>91380089</v>
-      </c>
-      <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-      <c r="H18">
-        <f>(B18/($B$18+$D$18))*$G$18</f>
-        <v>9.9647752753740187E-2</v>
-      </c>
-      <c r="I18">
-        <f>(D18/($B$18+$D$18))*$G$18</f>
-        <v>0.10035224724625982</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>D3</f>
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <f>D9</f>
-        <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19">
-        <v>0.2</v>
-      </c>
-      <c r="H19">
-        <f>(B19/($B$19+$D$19))*$G$19</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="I19">
-        <f>(D19/($B$19+$D$19))*$G$19</f>
-        <v>0.10909090909090909</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>E3</f>
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <f>E9</f>
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>0.15</v>
-      </c>
-      <c r="H20">
-        <f>B20*$G$20</f>
-        <v>0.15</v>
-      </c>
-      <c r="I20">
-        <f>D20*$H$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>F3</f>
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <f>F9</f>
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21">
-        <v>0.15</v>
-      </c>
-      <c r="H21">
-        <f>(B21/($B$21+$D$21))*$G$21</f>
-        <v>0.12</v>
-      </c>
-      <c r="I21">
-        <f>(D21/($B$21+$D$21))*$G$21</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>G3</f>
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22">
-        <f>G9</f>
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22">
-        <v>0.05</v>
-      </c>
-      <c r="H22">
-        <f>(1-(B22/($B$22+$D$22)))*$G$22</f>
-        <v>1.3636363636363636E-2</v>
-      </c>
-      <c r="I22">
-        <f>(1-(D22/($B$22+$D$22)))*$G$22</f>
-        <v>3.6363636363636369E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23">
-        <f>SUM(H17:H22)</f>
-        <v>0.67419320729919485</v>
-      </c>
-      <c r="I23">
-        <f>SUM(I17:I22)</f>
-        <v>0.32580679270080526</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>B5</f>
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <f>B7</f>
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26">
-        <v>0.25</v>
-      </c>
-      <c r="H26">
-        <f>(1 - (B26/(B26+D26)))*G26</f>
-        <v>0.15</v>
-      </c>
-      <c r="I26">
-        <f>(1 - (D26/(B26+D26)))*G26</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>C5</f>
-        <v>116217504</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4">
-        <f>C7</f>
-        <v>80498193</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27">
-        <v>0.2</v>
-      </c>
-      <c r="H27">
-        <f>(B27/($B$18+$D$18))*$G$18</f>
-        <v>0.12762832498172758</v>
-      </c>
-      <c r="I27">
-        <f>(D27/($B$18+$D$18))*$G$18</f>
-        <v>8.8401911786419263E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>D5</f>
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28">
-        <f>D7</f>
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28">
-        <v>0.2</v>
-      </c>
-      <c r="H28">
-        <f>(B28/($B$19+$D$19))*$G$19</f>
-        <v>0.14545454545454548</v>
-      </c>
-      <c r="I28">
-        <f>(D28/($B$19+$D$19))*$G$19</f>
-        <v>0.12727272727272729</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>E5</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <f>E7</f>
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>0.15</v>
-      </c>
-      <c r="H29">
-        <f>B29*$G$20</f>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f>D29*$H$20</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f>F5</f>
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <f>F7</f>
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30">
-        <v>0.15</v>
-      </c>
-      <c r="H30">
-        <f>(B30/($B$21+$D$21))*$G$21</f>
-        <v>0.09</v>
-      </c>
-      <c r="I30">
-        <f>(D30/($B$21+$D$21))*$G$21</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>G5</f>
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31">
-        <f>G7</f>
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31">
-        <v>0.05</v>
-      </c>
-      <c r="H31">
-        <f>(1-(B31/($B$22+$D$22)))*$G$22</f>
-        <v>3.1818181818181822E-2</v>
-      </c>
-      <c r="I31">
-        <f>(1-(D31/($B$22+$D$22)))*$G$22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <f>SUM(H26:H31)</f>
-        <v>0.54490105225445484</v>
-      </c>
-      <c r="I32">
-        <f>SUM(I26:I31)</f>
-        <v>0.52567463905914646</v>
       </c>
     </row>
   </sheetData>

--- a/Stadistics.xlsx
+++ b/Stadistics.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>Team</t>
   </si>
@@ -81,31 +81,34 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>108,574,574</t>
-  </si>
-  <si>
-    <t>93,465,328</t>
-  </si>
-  <si>
-    <t>108, 699,969</t>
-  </si>
-  <si>
-    <t>101, 312,813</t>
-  </si>
-  <si>
-    <t>96,294,035</t>
-  </si>
-  <si>
-    <t>110,981,223</t>
-  </si>
-  <si>
-    <t>93,818,786</t>
-  </si>
-  <si>
-    <t>92,571,386</t>
-  </si>
-  <si>
     <t>Games win in the last 10</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>Who Win</t>
+  </si>
+  <si>
+    <t>Predict</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>Who win</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Lose</t>
   </si>
 </sst>
 </file>
@@ -121,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -156,13 +165,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,9 +523,10 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -527,16 +548,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+      <c r="C2" s="2">
+        <v>108574574</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -550,8 +577,14 @@
       <c r="G2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -573,16 +606,22 @@
       <c r="G3" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+      <c r="C4" s="2">
+        <v>93465328</v>
       </c>
       <c r="D4" s="2">
         <v>7</v>
@@ -596,8 +635,14 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -619,16 +664,22 @@
       <c r="G5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+      <c r="C6" s="2">
+        <v>108699969</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
@@ -642,8 +693,14 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -665,16 +722,22 @@
       <c r="G7" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+      <c r="C8" s="2">
+        <v>101312813</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -688,8 +751,14 @@
       <c r="G8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -711,16 +780,22 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
+      <c r="C10" s="2">
+        <v>96294035</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -734,16 +809,22 @@
       <c r="G10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
+      <c r="C11" s="2">
+        <v>110981223</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -757,16 +838,22 @@
       <c r="G11" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
+      <c r="C12" s="2">
+        <v>93818786</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -780,16 +867,22 @@
       <c r="G12" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
+      <c r="C13" s="2">
+        <v>92571386</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
@@ -803,6 +896,454 @@
       <c r="G13" s="2">
         <v>9</v>
       </c>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>101725630</v>
+      </c>
+      <c r="D16" s="5">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>108574574</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>90738581</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>93465328</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>127511146</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>108699969</v>
+      </c>
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>4</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>80498193</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>101312813</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>101725630</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>108574574</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>90738581</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>93465328</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>127511146</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>108699969</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>4</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>80498193</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>19</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>101312813</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>17</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:G13">

--- a/Stadistics.xlsx
+++ b/Stadistics.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>Team</t>
   </si>
@@ -512,7 +512,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,9 @@
       <c r="G17" s="2">
         <v>2</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1008,7 +1010,9 @@
       <c r="G18" s="2">
         <v>17</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1062,7 +1066,9 @@
       <c r="G20" s="2">
         <v>3</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I20" s="7" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1095,9 @@
       <c r="G21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1208,11 +1216,15 @@
       <c r="C27" s="2">
         <v>108574574</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
       <c r="G27" s="2">
         <v>2</v>
       </c>
@@ -1229,11 +1241,15 @@
       <c r="C28" s="3">
         <v>90738581</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>7</v>
+      </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
       <c r="G28" s="2">
         <v>17</v>
       </c>
@@ -1271,11 +1287,15 @@
       <c r="C30" s="2">
         <v>127511146</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
       <c r="G30" s="2">
         <v>3</v>
       </c>
@@ -1292,11 +1312,15 @@
       <c r="C31" s="2">
         <v>108699969</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>7</v>
+      </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
       <c r="G31" s="2">
         <v>4</v>
       </c>

--- a/Stadistics.xlsx
+++ b/Stadistics.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
   <si>
     <t>Team</t>
   </si>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +189,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +522,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,11 +674,11 @@
       <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
+      <c r="H5" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,8 +732,8 @@
       <c r="G7" s="2">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
+      <c r="H7" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -954,7 +964,9 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1051,9 @@
       <c r="G19" s="2">
         <v>7</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="I19" s="7" t="s">
         <v>26</v>
       </c>
@@ -1124,7 +1138,9 @@
       <c r="G22" s="2">
         <v>19</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1167,9 @@
       <c r="G23" s="2">
         <v>17</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1195,16 +1213,22 @@
       <c r="C26" s="5">
         <v>101725630</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>9</v>
+      </c>
       <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>4</v>
+      </c>
       <c r="G26" s="5">
         <v>1</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1229,7 +1253,9 @@
         <v>2</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -1254,7 +1280,9 @@
         <v>17</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1266,16 +1294,22 @@
       <c r="C29" s="2">
         <v>93465328</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
       <c r="G29" s="2">
         <v>7</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1300,7 +1334,9 @@
         <v>3</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1325,7 +1361,9 @@
         <v>4</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1337,16 +1375,22 @@
       <c r="C32" s="3">
         <v>80498193</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
       <c r="G32" s="2">
         <v>19</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1358,16 +1402,22 @@
       <c r="C33" s="2">
         <v>101312813</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
       <c r="G33" s="2">
         <v>17</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:G13">
